--- a/jxvc.xlsx
+++ b/jxvc.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -354,14 +354,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1"/>
+  <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I21" t="e">
+        <f ca="1">saveFunc(54,50)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>